--- a/AutomateTheBoringStuffWithPython/Chapter12/SpreadsheetInverter/items.xlsx
+++ b/AutomateTheBoringStuffWithPython/Chapter12/SpreadsheetInverter/items.xlsx
@@ -12,65 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>ITEMS</t>
-  </si>
-  <si>
-    <t>SOLD</t>
-  </si>
-  <si>
-    <t>Eggplant</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>Cucumber</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>Green cabbage</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>Strawberries</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>Parsnips</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Garlic</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Asparagus</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>Avocados</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,76 +353,112 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ITEMS</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SOLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Eggplant</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cucumber</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Green cabbage</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Parsnips</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Garlic</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Asparagus</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Avocados</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
     </row>
   </sheetData>
